--- a/web/excel_examples/circuits_import.xlsx
+++ b/web/excel_examples/circuits_import.xlsx
@@ -29,7 +29,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -43,15 +43,20 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="15"/>
       <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -94,17 +99,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1381,64 +1389,64 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" ht="19" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" ht="19" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="19" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="19" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="19" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="19" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="19" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="19" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="19" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
